--- a/biology/Zoologie/Barbatula_leoparda/Barbatula_leoparda.xlsx
+++ b/biology/Zoologie/Barbatula_leoparda/Barbatula_leoparda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loche léopard
 Barbatula leoparda, la Loche léopard, est une espèce de poissons d'eau douce actinoptérygiens de la famille des Nemacheilidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette loche peut mesurer de 36,6 à 62,6 mm de long, queue non comprise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette loche peut mesurer de 36,6 à 62,6 mm de long, queue non comprise.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tech
 Têt
 Localisation du Tech et de la Têt dans les Pyrénées-Orientales.
-Ce poisson d'eau douce est endémique des bassins du Tech et de la Têt, deux fleuves côtiers du département des Pyrénées-Orientales, dans la région Occitanie, en France[1].
+Ce poisson d'eau douce est endémique des bassins du Tech et de la Têt, deux fleuves côtiers du département des Pyrénées-Orientales, dans la région Occitanie, en France.
 </t>
         </is>
       </c>
@@ -578,15 +594,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite en 2019 par les biologistes Camille Gauliard (d), Agnès Dettaï (d), Henri Persat (d), Philippe Keith (d) et Gaël P. J. Denys (d)[1].
-Elle a été distinguée de la Loche franche (Barbatula barbatula) et de la Loche du Languedoc (B. quignardi), qui ont des aires de répartition bien plus étendues[1].
-Étymologie et dénomination
-L'épithète spécifique leoparda vient des taches ventrales sur les spécimens adultes, par analogie aux rosettes d'un Léopard (Panthera pardus)[1].
-Le nom vernaculaire attesté en français est « Loche léopard »[1],[2].
-Publication originale
-(en + fr) Camille Gauliard, Agnès Dettaï, Henri Persat, Philippe Keith et Gaël P. J. Denys, « Barbatula leoparda (Actinopterygii, Nemacheilidae), a new endemic species of stone loach of French Catalonia », Cybium, Paris, Société française d'ichtyologie, vol. 43, no 2,‎ juin 2019, p. 169-177 (DOI 10.26028/cybium/2019-423-005, lire en ligne [PDF], consulté le 1er mai 2024) (protologue).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 2019 par les biologistes Camille Gauliard (d), Agnès Dettaï (d), Henri Persat (d), Philippe Keith (d) et Gaël P. J. Denys (d).
+Elle a été distinguée de la Loche franche (Barbatula barbatula) et de la Loche du Languedoc (B. quignardi), qui ont des aires de répartition bien plus étendues.
+</t>
         </is>
       </c>
     </row>
@@ -611,12 +625,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie et dénomination</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique leoparda vient des taches ventrales sur les spécimens adultes, par analogie aux rosettes d'un Léopard (Panthera pardus).
+Le nom vernaculaire attesté en français est « Loche léopard »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Barbatula_leoparda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbatula_leoparda</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en + fr) Camille Gauliard, Agnès Dettaï, Henri Persat, Philippe Keith et Gaël P. J. Denys, « Barbatula leoparda (Actinopterygii, Nemacheilidae), a new endemic species of stone loach of French Catalonia », Cybium, Paris, Société française d'ichtyologie, vol. 43, no 2,‎ juin 2019, p. 169-177 (DOI 10.26028/cybium/2019-423-005, lire en ligne [PDF], consulté le 1er mai 2024) (protologue).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Barbatula_leoparda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbatula_leoparda</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Barbatula leoparda et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbatula leoparda est considérée comme une « espèce en danger » par la liste rouge du Comité français de l'UICN[2],[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbatula leoparda est considérée comme une « espèce en danger » par la liste rouge du Comité français de l'UICN,.
 </t>
         </is>
       </c>
